--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A9D05-6645-409D-AE91-2FF57589B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="5150" yWindow="2100" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>備註說明</t>
   </si>
@@ -42,11 +43,11 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
@@ -68,96 +69,96 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UNI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Parameter</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Stored Procedure Name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ˇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LoanBalance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>放款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LifeRelHead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelWithCompany</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>與本公司關之關係</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>代碼說明：
@@ -169,26 +170,26 @@
 F：同一關係企業
 G：內勤職員
 Z：其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HeadId</t>
   </si>
   <si>
     <t>負責人身分證/統一編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HeadName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>負責人名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HeadTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>關係人職稱</t>
@@ -204,70 +205,70 @@
 H：經理
 I：副理
 J：其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelId</t>
   </si>
   <si>
     <t>負責人關係人身分證/統一編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>關係人親屬姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelKinShip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>關係人親屬親等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A：三親等以內血親
 B：二親等以內姻親
 C：其他
 NULL：本人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>關係人親屬稱謂</t>
   </si>
   <si>
     <t>BusId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>事業負責人身分證/統一編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BusName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>事業名稱</t>
   </si>
   <si>
     <t>ShareHoldingRatio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>事業持股比率</t>
   </si>
   <si>
     <t>BusTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>事業擔任職務</t>
@@ -284,15 +285,15 @@
 H：經理
 I：副理
 J：其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LineAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>核貸金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人壽利關人負責人檔T07、TA07
@@ -303,19 +304,54 @@
   </si>
   <si>
     <t>HeadId,RelId,BusId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -507,136 +543,145 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{51008D73-315A-41A1-806A-058AABD1C100}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{8F8E4D34-AC41-4336-A2E2-D5AB339F564F}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{E901D70E-B5CE-4B31-AAF5-D48E0FDBA6A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,6 +772,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -762,6 +824,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -937,33 +1016,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.08984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.08984375" style="13" customWidth="1"/>
     <col min="8" max="16384" width="21.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="68" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="6"/>
@@ -971,440 +1050,455 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="272" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="272" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="170" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="13">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="13">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="13">
+        <v>10</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13">
+        <v>100</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="13">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="13">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="187" x14ac:dyDescent="0.4">
+      <c r="A22" s="13">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="13">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G22" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="13">
+        <v>16</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="13">
+        <v>16</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="13">
         <v>17</v>
       </c>
-      <c r="E10" s="15">
-        <v>10</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="15">
-        <v>100</v>
-      </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="170" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15">
-        <v>50</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="E25" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="15">
-        <v>50</v>
-      </c>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="15">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="15">
-        <v>10</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="15">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="15">
-        <v>50</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="15">
-        <v>16</v>
-      </c>
-      <c r="F21" s="15">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
-        <v>14</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="15">
-        <v>16</v>
-      </c>
-      <c r="F22" s="15">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
-        <v>15</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="13">
         <v>18</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="B26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="13">
         <v>19</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="B27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13">
         <v>6</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
-        <v>18</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="15">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="27"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
@@ -1427,26 +1521,29 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="15"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
-      <c r="F44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="13"/>
+      <c r="F45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1458,19 +1555,19 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1492,22 +1589,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1517,19 +1622,19 @@
     <col min="3" max="3" width="60.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A9D05-6645-409D-AE91-2FF57589B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70181AD6-85BD-4974-8014-104B9120EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="5150" yWindow="2100" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1050" yWindow="800" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <t>KeyId</t>
   </si>
   <si>
-    <t>HeadId,RelId,BusId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>會計日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -324,6 +320,10 @@
   </si>
   <si>
     <t xml:space="preserve">AcDate = </t>
+  </si>
+  <si>
+    <t>HeadId,RelId,BusId,AcDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +671,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1020,7 +1017,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1068,7 +1065,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>32</v>
@@ -1149,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="13">
         <v>8</v>
@@ -1591,10 +1588,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70181AD6-85BD-4974-8014-104B9120EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48028553-C7B1-4539-A03F-CA42881ECDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1050" yWindow="800" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="5736" yWindow="1224" windowWidth="16908" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,9 +734,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,26 +769,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,26 +804,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,22 +982,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.08984375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="8"/>
+    <col min="1" max="1" width="5.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="68" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1012,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="18" t="s">
@@ -1059,7 +1025,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1040,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1051,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1062,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1073,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1084,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -1159,7 +1125,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="272" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -1179,7 +1145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>3</v>
       </c>
@@ -1197,7 +1163,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
@@ -1215,7 +1181,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="170" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="162" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>5</v>
       </c>
@@ -1235,7 +1201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>6</v>
       </c>
@@ -1253,7 +1219,7 @@
       </c>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>7</v>
       </c>
@@ -1271,7 +1237,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>8</v>
       </c>
@@ -1291,7 +1257,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>9</v>
       </c>
@@ -1309,7 +1275,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>10</v>
       </c>
@@ -1328,7 +1294,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>11</v>
       </c>
@@ -1346,7 +1312,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>12</v>
       </c>
@@ -1364,7 +1330,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>13</v>
       </c>
@@ -1380,9 +1346,11 @@
       <c r="E21" s="13">
         <v>50</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="187" x14ac:dyDescent="0.4">
+      <c r="G21" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>14</v>
       </c>
@@ -1401,11 +1369,8 @@
       <c r="F22" s="13">
         <v>2</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>15</v>
       </c>
@@ -1426,7 +1391,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>16</v>
       </c>
@@ -1441,7 +1406,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>17</v>
       </c>
@@ -1459,7 +1424,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>18</v>
       </c>
@@ -1474,7 +1439,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>19</v>
       </c>
@@ -1492,51 +1457,51 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="13"/>
@@ -1567,15 +1532,15 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1586,7 +1551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1594,7 +1559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
     </row>
   </sheetData>
@@ -1612,14 +1577,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelHead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48028553-C7B1-4539-A03F-CA42881ECDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D7681-B593-4961-B136-F5A2C128F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="5736" yWindow="1224" windowWidth="16908" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -324,6 +320,9 @@
   <si>
     <t>HeadId,RelId,BusId,AcDate</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -983,7 +982,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1003,10 +1002,10 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1016,7 +1015,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>15</v>
@@ -1031,10 +1030,10 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
@@ -1112,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="E9" s="13">
         <v>8</v>
@@ -1130,19 +1129,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>17</v>
@@ -1168,10 +1167,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>17</v>
@@ -1186,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>17</v>
@@ -1198,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>17</v>
@@ -1224,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>17</v>
@@ -1242,10 +1241,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>17</v>
@@ -1254,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1262,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>17</v>
@@ -1280,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>17</v>
@@ -1299,10 +1298,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>17</v>
@@ -1317,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="13">
         <v>3</v>
@@ -1335,10 +1334,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>17</v>
@@ -1347,7 +1346,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1355,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="13">
         <v>16</v>
@@ -1375,13 +1374,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="13">
         <v>16</v>
@@ -1402,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1411,10 +1410,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>17</v>
@@ -1429,13 +1428,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -1444,13 +1443,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E27" s="13">
         <v>6</v>
@@ -1553,10 +1552,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,13 +1585,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
